--- a/계획표.xlsx
+++ b/계획표.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dounii\Desktop\TCM\TCM_Cobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4C4221-8CA5-4C8E-925F-70B1051AB69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F024D98-3FAC-4431-9E46-BC40F99A82CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B06EFC80-A5D2-40DD-894D-9DDAD4D977BC}"/>
   </bookViews>
@@ -36,192 +36,793 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
-  <si>
-    <t>01.12 ~ 01.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>01.16 ~ 01.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>01.23 ~ 01.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01.30 ~ 02.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02.06 ~ 02.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02.13 ~ 02.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02.20 ~ 02.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02.27 ~ 03.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.06 ~ 03.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0. ~ 0.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.13 ~ 03.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.20 ~ 03.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.27 ~ 04.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.03 ~ 04.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.10 ~ 04.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.17 ~ 04.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.24 ~ 04.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.01 ~ 05.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.08 ~ 05.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.15 ~ 05.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.22 ~ 05.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.29 ~ 06.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.05 ~ 06.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.12 ~ 06.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.19 ~ 06.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.26 ~ 07.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.03 ~ 07.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 5 먼저하고 다른 스테이지 삽입 하는 식으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>서버 연동</t>
-  </si>
-  <si>
-    <t>01.23 ~ 01.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01.30 ~ 02.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02.06 ~ 02.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02.13 ~ 02.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02.20 ~ 02.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02.27 ~ 03.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.06 ~ 03.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0. ~ 0.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.13 ~ 03.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.20 ~ 03.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.27 ~ 04.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04.03 ~ 04.09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04.10 ~ 04.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04.17 ~ 04.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04.24 ~ 04.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05.01 ~ 05.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05.08 ~ 05.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05.15 ~ 05.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05.22 ~ 05.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05.29 ~ 06.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06.05 ~ 06.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06.12 ~ 06.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06.19 ~ 06.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06.26 ~ 07.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07.03 ~ 07.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 초기 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE_1 텍스처 입히기 ( 섭페 사용 ), STAGE_1 분위기 조성 ( 엘베, 안개 ), STAGE_1 대화창 ( 충돌 시 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정계획서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충돌처리 ( 도전 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE_2 모델링, 텍스처, 사운드 리소스 탐색 ( STAGE_1, STAGE_2 ), 시네마틱 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE_1 장애물 상호작용 ( 버튼 ), STAGE_1 엘베 올라감, 캐릭터 움직임 ( 도전 ), STAGE_1 대화창 ( 튜토리얼 ), 메인 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE_1 모델링 ( 엘베, 스테이지 ), 카메라 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장애물 상호작용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 합체 후 움직임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합체 후 움직임 2월 안에 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장애물 상호작용 2주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 움직임 2월 안에 완료, 수정계획서, 세부계획서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 기간, 모델링 2주, 수정계획서, 세부계획서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 5 먼저하고 다른 스테이지 삽입 하는 식으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE_5 모델링, 텍스처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE_5 미션 추가 및 마무리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데베 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인, STAGE_3 모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민지 - 여행 ( 1.27 ~ 1.31 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이도윤 - 여행 ( 1.16 ~ 1.24 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01.09 ~ 01.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김채민 - 여행 ( 1.04 ~ 1.07 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>빨강</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 안함, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>파랑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 계획에 없던, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>취소선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 해결</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">게임 인트로 화면, 메인 화면 추가 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( 인트로, 메인 화면 이미지 수정 해야함 )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 시작 시네마틱 추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( 사운드 X )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, STAGE_1 장애물 상호작용 ( 버튼 애니메이션 ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( X )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 사운드 리소스 탐색 ( STAGE_1, STAGE_2 ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( X )</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">카메라 추가, STAGE_1 맵 모델링, STAGE_1 EV 제작, EV 텍스처 제작 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( X )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, STAGE_1 투명벽 대화창 추가, STAGE_1 맵 텍스터 입히기 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( X )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, STAGE_1 분위기 ( 빛, 안개 ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( 빛, 안개 )</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STAGE_2 모델링 ( 맵, 파이프 미로, 기어, 이동 수단 ), 만든 모델 텍스처 입히기 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">( 맵, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>파이프 미로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 기어, 이동수단 )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EV 모델링 수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 캐릭터 움직임 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( X )</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STAGE_2 파이프 미로 장애물 구현, STAGE_2 기어 장애물 구현, STAGE_1 대화창 ( 튜토리얼 ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( X )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STAGE_2 파이프 미로 텍스처 적용, 공동 카메라에서 개인 카메라로 수정</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획표 점검, 수정 2주마다 하는게 나을듯?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 각자 ? 공동 ? 정해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링버퍼 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 프레임워크 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라와 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라와 움직임 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage1 장애물 상호작용 서버화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획표 수정 ( 2월 13일 ~ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_2 마지막 파트 장애물 모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합체 구현 ( 느낌만, 플레이어 한명이 움직이고 한명은 잡기 놓기 기능 ), 합체 상태에서 잡기 ( 움직임 x ), STAGE_2 보물찾기 미션 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_5 맵 모델링,STAGE_1 텍스처 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_5 마지막 미션 상호작용 구현, STAGE_1 사운드 적용, 메인화면 설정 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두 cpp로 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합체 구현, 합체 후 움직임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_2 5 사운드 적용, 단일 캐릭터 움직임 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 캐릭터 움직임 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직임 적용 후 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 전환 후 새로운 폰 연동, 충돌처리 도전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage2, 5 장애물 상호작용 서버화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합체 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인, 데베 연동, 매칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트레스 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이턴시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE 배경 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_3 맵 모델링, STAGE_3 텍스처 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_3 그림자 미션 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기말고사 ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_4 용광로 미션 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_4 맵 모델링, 텍스처 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성 목표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 수정 ~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중간발표( 05.08 )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> // STAGE_4 발판 구현, 차 구현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_3 cpp 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_4 그림자 미션 구현</t>
+  </si>
+  <si>
+    <t>중간고사 // STAGE_1, 2, 3, 5 점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_4 용광로 쇳물 질감 구현 ( 머테리얼로 ? )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_2 5 텍스처 적용, 인트로랑 메인 화면 이미지 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STAGE_1 -&gt; STAGE_2 전환, 캐릭터 합체 구현 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( X )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, STAGE_1 STAGE_2 사운드 적용 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( X )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">STAGE_2 기어 장애물 구현 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( X )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, STAGE_1 버튼 애니메이션, EV 애니메이션, STAGE_1 튜토리얼, 서버 정보 받은거 렌더링, 로그인 창, cpp로 변환 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">( 일부분 ), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>떨어지면 시작지점 리스폰,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작 시네마틱 사운드 추가</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +830,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +846,50 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +899,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,11 +923,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,238 +1250,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E8A85B-B798-4185-9BD1-C35E8FAE44D2}">
-  <dimension ref="B1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="106.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.3984375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" customWidth="1"/>
+    <col min="3" max="3" width="1" style="1" customWidth="1"/>
+    <col min="4" max="4" width="255.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.69921875" customWidth="1"/>
+    <col min="6" max="6" width="23.19921875" customWidth="1"/>
+    <col min="7" max="7" width="26.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D1" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
       <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/계획표.xlsx
+++ b/계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dounii\Desktop\TCM\TCM_Cobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F024D98-3FAC-4431-9E46-BC40F99A82CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444737E4-955C-415C-BFD3-FB7C964EEC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B06EFC80-A5D2-40DD-894D-9DDAD4D977BC}"/>
   </bookViews>
@@ -821,7 +821,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>시작 시네마틱 사운드 추가</t>
+      <t>시작 시네마틱 사운드 추가, 센서 버튼 인원 수 표시</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/계획표.xlsx
+++ b/계획표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dounii\Desktop\TCM\TCM_Cobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444737E4-955C-415C-BFD3-FB7C964EEC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA4118A-7C5F-46F8-8C41-821028B327B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B06EFC80-A5D2-40DD-894D-9DDAD4D977BC}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{B06EFC80-A5D2-40DD-894D-9DDAD4D977BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
   <si>
     <t>01.16 ~ 01.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -823,6 +823,250 @@
       </rPr>
       <t>시작 시네마틱 사운드 추가, 센서 버튼 인원 수 표시</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">중간발표 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 발표 전 마지막 졸작 미팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt 제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt 완성, 대본 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패키징 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpp화 끝내야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 2개 생각, 배경 사운드, 발 내려놓는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpp 엘베, 미션 2개 cpp // 충돌 영역 // 기어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpp 버튼, 기둥, 지게차 // 상호작용 사운드 // 미션 깨면 다리 생기는거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">전체적으로 머티리얼 정리 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cpp화 : 엘베</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>지게차, 버튼(1s), 기둥, 미션 깨면 다리 생기는거, 기어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>미션2개 생각한거 // 충돌 영역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ 5s 시네마틱 완성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 사운드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시네마틱 완성 // ppt 제작 시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1250,18 +1494,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E8A85B-B798-4185-9BD1-C35E8FAE44D2}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.3984375" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="12.19921875" customWidth="1"/>
     <col min="3" max="3" width="1" style="1" customWidth="1"/>
-    <col min="4" max="4" width="255.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="178.8984375" customWidth="1"/>
     <col min="5" max="5" width="28.69921875" customWidth="1"/>
     <col min="6" max="6" width="23.19921875" customWidth="1"/>
     <col min="7" max="7" width="26.796875" customWidth="1"/>
@@ -1583,6 +1827,139 @@
         <v>8</v>
       </c>
     </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D33" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/계획표.xlsx
+++ b/계획표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dounii\Desktop\TCM\TCM_Cobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA4118A-7C5F-46F8-8C41-821028B327B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F57304-1C81-4936-A60F-7EEC7ACCBA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{B06EFC80-A5D2-40DD-894D-9DDAD4D977BC}"/>
+    <workbookView xWindow="2630" yWindow="2630" windowWidth="18031" windowHeight="9303" xr2:uid="{B06EFC80-A5D2-40DD-894D-9DDAD4D977BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
   <si>
     <t>01.16 ~ 01.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1067,6 +1067,10 @@
   </si>
   <si>
     <t>시네마틱 완성 // ppt 제작 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt -&gt; 1장. 기획서 바뀐거 / 2장. 진행상황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1496,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E8A85B-B798-4185-9BD1-C35E8FAE44D2}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.2" x14ac:dyDescent="0.4"/>
@@ -1868,6 +1872,9 @@
       <c r="B38" t="s">
         <v>80</v>
       </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
